--- a/www/IndicatorsPerCountry/Zambia_GDPperCapita_TerritorialRef_1964_2012_CCode_894.xlsx
+++ b/www/IndicatorsPerCountry/Zambia_GDPperCapita_TerritorialRef_1964_2012_CCode_894.xlsx
@@ -240,13 +240,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Zambia_GDPperCapita_TerritorialRef_1964_2012_CCode_894.xlsx
+++ b/www/IndicatorsPerCountry/Zambia_GDPperCapita_TerritorialRef_1964_2012_CCode_894.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="83">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,181 +36,196 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>661</t>
-  </si>
-  <si>
-    <t>688</t>
-  </si>
-  <si>
-    <t>715</t>
-  </si>
-  <si>
-    <t>743</t>
-  </si>
-  <si>
-    <t>772</t>
-  </si>
-  <si>
-    <t>736</t>
-  </si>
-  <si>
-    <t>803</t>
-  </si>
-  <si>
-    <t>817</t>
-  </si>
-  <si>
-    <t>776</t>
-  </si>
-  <si>
-    <t>915</t>
-  </si>
-  <si>
-    <t>960</t>
-  </si>
-  <si>
-    <t>938</t>
-  </si>
-  <si>
-    <t>905</t>
-  </si>
-  <si>
-    <t>902</t>
-  </si>
-  <si>
-    <t>996</t>
-  </si>
-  <si>
-    <t>1147</t>
-  </si>
-  <si>
-    <t>1056</t>
-  </si>
-  <si>
-    <t>1107</t>
-  </si>
-  <si>
-    <t>1092</t>
-  </si>
-  <si>
-    <t>1073</t>
-  </si>
-  <si>
-    <t>1042</t>
-  </si>
-  <si>
-    <t>1105</t>
-  </si>
-  <si>
-    <t>1062</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>1041</t>
-  </si>
-  <si>
-    <t>1071</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>967</t>
-  </si>
-  <si>
-    <t>910</t>
-  </si>
-  <si>
-    <t>911</t>
-  </si>
-  <si>
-    <t>936</t>
-  </si>
-  <si>
-    <t>877</t>
-  </si>
-  <si>
-    <t>828</t>
-  </si>
-  <si>
-    <t>796</t>
-  </si>
-  <si>
-    <t>784</t>
-  </si>
-  <si>
-    <t>762</t>
-  </si>
-  <si>
-    <t>755</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>806.247414668</t>
-  </si>
-  <si>
-    <t>778.911693172</t>
-  </si>
-  <si>
-    <t>773.401007281</t>
-  </si>
-  <si>
-    <t>752.436827274</t>
-  </si>
-  <si>
-    <t>635.622929868</t>
-  </si>
-  <si>
-    <t>602.136232825</t>
-  </si>
-  <si>
-    <t>627.683650245</t>
-  </si>
-  <si>
-    <t>630.440770634</t>
-  </si>
-  <si>
-    <t>601.700423438</t>
-  </si>
-  <si>
-    <t>598.334082285</t>
-  </si>
-  <si>
-    <t>601.644425649</t>
-  </si>
-  <si>
-    <t>612.638218057</t>
-  </si>
-  <si>
-    <t>616.548717301</t>
-  </si>
-  <si>
-    <t>632.497311182</t>
-  </si>
-  <si>
-    <t>650.541123402</t>
-  </si>
-  <si>
-    <t>668.162321892</t>
-  </si>
-  <si>
-    <t>691.168213468</t>
-  </si>
-  <si>
-    <t>714.259392653</t>
-  </si>
-  <si>
-    <t>734.220308502</t>
-  </si>
-  <si>
-    <t>760.257459817</t>
-  </si>
-  <si>
-    <t>795.368877677</t>
+    <t>1054</t>
+  </si>
+  <si>
+    <t>1097</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>1184</t>
+  </si>
+  <si>
+    <t>1231</t>
+  </si>
+  <si>
+    <t>1173</t>
+  </si>
+  <si>
+    <t>1280</t>
+  </si>
+  <si>
+    <t>1302</t>
+  </si>
+  <si>
+    <t>1237</t>
+  </si>
+  <si>
+    <t>1458</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>1495</t>
+  </si>
+  <si>
+    <t>1443</t>
+  </si>
+  <si>
+    <t>1438</t>
+  </si>
+  <si>
+    <t>1588</t>
+  </si>
+  <si>
+    <t>1828</t>
+  </si>
+  <si>
+    <t>1683</t>
+  </si>
+  <si>
+    <t>1765</t>
+  </si>
+  <si>
+    <t>1741</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1661</t>
+  </si>
+  <si>
+    <t>1761</t>
+  </si>
+  <si>
+    <t>1693</t>
+  </si>
+  <si>
+    <t>1776</t>
+  </si>
+  <si>
+    <t>1659</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1578</t>
+  </si>
+  <si>
+    <t>1541</t>
+  </si>
+  <si>
+    <t>1451</t>
+  </si>
+  <si>
+    <t>1452</t>
+  </si>
+  <si>
+    <t>1492</t>
+  </si>
+  <si>
+    <t>1398</t>
+  </si>
+  <si>
+    <t>1320</t>
+  </si>
+  <si>
+    <t>1269</t>
+  </si>
+  <si>
+    <t>1250</t>
+  </si>
+  <si>
+    <t>1215</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>1239</t>
+  </si>
+  <si>
+    <t>1285</t>
+  </si>
+  <si>
+    <t>1279.75153116321</t>
+  </si>
+  <si>
+    <t>1308.85164945522</t>
+  </si>
+  <si>
+    <t>1312.33700404636</t>
+  </si>
+  <si>
+    <t>1142.20181649741</t>
+  </si>
+  <si>
+    <t>1180.94380162861</t>
+  </si>
+  <si>
+    <t>1260.72619206876</t>
+  </si>
+  <si>
+    <t>1311.35711152271</t>
+  </si>
+  <si>
+    <t>1308.95146938519</t>
+  </si>
+  <si>
+    <t>1373.8510250415</t>
+  </si>
+  <si>
+    <t>1428.5023540793</t>
+  </si>
+  <si>
+    <t>1504.4498690487</t>
+  </si>
+  <si>
+    <t>1579.02276445964</t>
+  </si>
+  <si>
+    <t>1698.55156609439</t>
+  </si>
+  <si>
+    <t>1828.30986246116</t>
+  </si>
+  <si>
+    <t>1970.01867888223</t>
+  </si>
+  <si>
+    <t>2133.5938846454</t>
+  </si>
+  <si>
+    <t>2318.62707352624</t>
+  </si>
+  <si>
+    <t>2504.75698144433</t>
+  </si>
+  <si>
+    <t>2743.32192102064</t>
+  </si>
+  <si>
+    <t>3032.06792913034</t>
+  </si>
+  <si>
+    <t>3205</t>
+  </si>
+  <si>
+    <t>3350</t>
+  </si>
+  <si>
+    <t>3419</t>
+  </si>
+  <si>
+    <t>3478</t>
+  </si>
+  <si>
+    <t>3479</t>
   </si>
   <si>
     <t>Description</t>
@@ -1351,6 +1366,108 @@
         <v>65</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>894.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>894.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>894.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>894.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>894.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>894.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1366,50 +1483,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
